--- a/results_v1/res_line/i_ka.xlsx
+++ b/results_v1/res_line/i_ka.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,629 +394,704 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.401129784976213</v>
+        <v>0.205317965691192</v>
       </c>
       <c r="C2">
-        <v>0.006612832651193419</v>
+        <v>0.1467364524469323</v>
       </c>
       <c r="D2">
-        <v>0.2899523698979818</v>
+        <v>0.2524342072841682</v>
       </c>
       <c r="E2">
-        <v>0.5397971191204456</v>
+        <v>0.1413694335066137</v>
       </c>
       <c r="F2">
-        <v>0.6448620028101764</v>
+        <v>0.2671701231001974</v>
       </c>
       <c r="G2">
-        <v>0.8466290219505339</v>
+        <v>0.5940975467704921</v>
       </c>
       <c r="H2">
-        <v>0.478012325696473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.8222432699302528</v>
+      </c>
+      <c r="I2">
+        <v>0.4875759958221129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3900581542546146</v>
+        <v>0.2398926599477817</v>
       </c>
       <c r="C3">
-        <v>0.006613319491312495</v>
+        <v>0.1951246398888193</v>
       </c>
       <c r="D3">
-        <v>0.2873903115762186</v>
+        <v>0.2820873768268972</v>
       </c>
       <c r="E3">
-        <v>0.518785010816157</v>
+        <v>0.1909788255596809</v>
       </c>
       <c r="F3">
-        <v>0.6361256031343875</v>
+        <v>0.3442634381506143</v>
       </c>
       <c r="G3">
-        <v>0.8472209074116057</v>
+        <v>0.6252704943490801</v>
       </c>
       <c r="H3">
-        <v>0.4781078123203189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.8345695310263297</v>
+      </c>
+      <c r="I3">
+        <v>0.4719459585730708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.488238556716253</v>
+        <v>0.2921951671778739</v>
       </c>
       <c r="C4">
-        <v>0.006615262017816543</v>
+        <v>0.2386901689156154</v>
       </c>
       <c r="D4">
-        <v>0.3015135230170795</v>
+        <v>0.2984997240236078</v>
       </c>
       <c r="E4">
-        <v>0.6111883481146995</v>
+        <v>0.2352205116024746</v>
       </c>
       <c r="F4">
-        <v>0.6634888614233091</v>
+        <v>0.4075645057584928</v>
       </c>
       <c r="G4">
-        <v>0.8500257927814776</v>
+        <v>0.6509644279295367</v>
       </c>
       <c r="H4">
-        <v>0.4735724196837193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.8389392515799401</v>
+      </c>
+      <c r="I4">
+        <v>0.4649832868947945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4241634587234841</v>
+        <v>0.2320670051641201</v>
       </c>
       <c r="C5">
-        <v>0.006620237193195935</v>
+        <v>0.1869801827013844</v>
       </c>
       <c r="D5">
-        <v>0.2858109100828866</v>
+        <v>0.2810543979975049</v>
       </c>
       <c r="E5">
-        <v>0.5497154460173358</v>
+        <v>0.1826617030031923</v>
       </c>
       <c r="F5">
-        <v>0.6372836158980774</v>
+        <v>0.3315317345072078</v>
       </c>
       <c r="G5">
-        <v>0.8380230125663898</v>
+        <v>0.63408598675596</v>
       </c>
       <c r="H5">
-        <v>0.4742390994171705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.8251615666870875</v>
+      </c>
+      <c r="I5">
+        <v>0.4702747094330132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2857579115189719</v>
+        <v>0.2959196058158034</v>
       </c>
       <c r="C6">
-        <v>0.006605714101210613</v>
+        <v>0.2389488881070309</v>
       </c>
       <c r="D6">
-        <v>0.2651858875797632</v>
+        <v>0.294405075861648</v>
       </c>
       <c r="E6">
-        <v>0.3823801358829026</v>
+        <v>0.2355007247655917</v>
       </c>
       <c r="F6">
-        <v>0.6072128652408633</v>
+        <v>0.4034382026205649</v>
       </c>
       <c r="G6">
-        <v>0.8301320702422956</v>
+        <v>0.6594727150587317</v>
       </c>
       <c r="H6">
-        <v>0.4821657761362351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.8242586079473608</v>
+      </c>
+      <c r="I6">
+        <v>0.4633878683235954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.430898585587242</v>
+        <v>0.2072555817461569</v>
       </c>
       <c r="C7">
-        <v>0.006622498014588741</v>
+        <v>0.1556064088031203</v>
       </c>
       <c r="D7">
-        <v>0.2833855949149736</v>
+        <v>0.2552862430999341</v>
       </c>
       <c r="E7">
-        <v>0.5590200572021238</v>
+        <v>0.1505619011771568</v>
       </c>
       <c r="F7">
-        <v>0.63788522837414</v>
+        <v>0.2795799646783502</v>
       </c>
       <c r="G7">
-        <v>0.8332386734074267</v>
+        <v>0.6001444511458196</v>
       </c>
       <c r="H7">
-        <v>0.4741716512503009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.8128223182524703</v>
+      </c>
+      <c r="I7">
+        <v>0.4800824741588589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2715966951307918</v>
+        <v>0.2230583472146873</v>
       </c>
       <c r="C8">
-        <v>0.006604315862137714</v>
+        <v>0.1839632146604778</v>
       </c>
       <c r="D8">
-        <v>0.2618813433674053</v>
+        <v>0.2691859451002536</v>
       </c>
       <c r="E8">
-        <v>0.3682511442060559</v>
+        <v>0.1796562883867253</v>
       </c>
       <c r="F8">
-        <v>0.5966004206682791</v>
+        <v>0.3422449946383557</v>
       </c>
       <c r="G8">
-        <v>0.830426581620592</v>
+        <v>0.6013704000348488</v>
       </c>
       <c r="H8">
-        <v>0.4822289799233032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.8208626697292281</v>
+      </c>
+      <c r="I8">
+        <v>0.4690224448464838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2564859006557374</v>
+        <v>0.2957607403450618</v>
       </c>
       <c r="C9">
-        <v>0.006591334586274743</v>
+        <v>0.1200484689046901</v>
       </c>
       <c r="D9">
-        <v>0.2434268217816365</v>
+        <v>0.1959942378815444</v>
       </c>
       <c r="E9">
-        <v>0.2818728611609151</v>
+        <v>0.1138804137282002</v>
       </c>
       <c r="F9">
-        <v>0.559271024918257</v>
+        <v>0.1384272664149152</v>
       </c>
       <c r="G9">
-        <v>0.8289689777843058</v>
+        <v>0.5028602679008238</v>
       </c>
       <c r="H9">
-        <v>0.4890500042889692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.8012010735097477</v>
+      </c>
+      <c r="I9">
+        <v>0.5060224552174993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.265682391114764</v>
+        <v>0.2087901921520481</v>
       </c>
       <c r="C10">
-        <v>0.006585825885449579</v>
+        <v>0.1448401571574982</v>
       </c>
       <c r="D10">
-        <v>0.2330118733555092</v>
+        <v>0.2594835098517874</v>
       </c>
       <c r="E10">
-        <v>0.2470373285833416</v>
+        <v>0.1394186879515349</v>
       </c>
       <c r="F10">
-        <v>0.5504169668678451</v>
+        <v>0.2769558683308213</v>
       </c>
       <c r="G10">
-        <v>0.8248864795701121</v>
+        <v>0.5879738213046215</v>
       </c>
       <c r="H10">
-        <v>0.495465261150845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.8197593975878714</v>
+      </c>
+      <c r="I10">
+        <v>0.4747647199353482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2605831114965396</v>
+        <v>0.2058838291110699</v>
       </c>
       <c r="C11">
-        <v>0.006593589553310058</v>
+        <v>0.1409199092641197</v>
       </c>
       <c r="D11">
-        <v>0.2408692112863088</v>
+        <v>0.2477993536033985</v>
       </c>
       <c r="E11">
-        <v>0.2858641070559644</v>
+        <v>0.1354284232158728</v>
       </c>
       <c r="F11">
-        <v>0.5474577470485925</v>
+        <v>0.2686649006374055</v>
       </c>
       <c r="G11">
-        <v>0.8301094091994938</v>
+        <v>0.5664493457244579</v>
       </c>
       <c r="H11">
-        <v>0.4883092532277533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.8164014630032881</v>
+      </c>
+      <c r="I11">
+        <v>0.4783509865926077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4870973264929984</v>
+        <v>0.2561165309094132</v>
       </c>
       <c r="C12">
-        <v>0.006508619099126153</v>
+        <v>0.1127213179977189</v>
       </c>
       <c r="D12">
-        <v>0.1907552339817108</v>
+        <v>0.213883235872687</v>
       </c>
       <c r="E12">
-        <v>0.2017691227677746</v>
+        <v>0.1060043423169888</v>
       </c>
       <c r="F12">
-        <v>0.4933089746259931</v>
+        <v>0.1648861894854589</v>
       </c>
       <c r="G12">
-        <v>0.8233117919589905</v>
+        <v>0.5295819439042166</v>
       </c>
       <c r="H12">
-        <v>0.5236078887267345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.8058162060298196</v>
+      </c>
+      <c r="I12">
+        <v>0.4978745738804201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2534928106313442</v>
+        <v>0.2023580603722125</v>
       </c>
       <c r="C13">
-        <v>0.006590967914896981</v>
+        <v>0.1394823072880789</v>
       </c>
       <c r="D13">
-        <v>0.2203680757500248</v>
+        <v>0.2391710352580448</v>
       </c>
       <c r="E13">
-        <v>0.2368693602739702</v>
+        <v>0.1339725468824875</v>
       </c>
       <c r="F13">
-        <v>0.5444307787522077</v>
+        <v>0.260294192470731</v>
       </c>
       <c r="G13">
-        <v>0.8167483669615779</v>
+        <v>0.5626433604521048</v>
       </c>
       <c r="H13">
-        <v>0.502968779506653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.8106831547998392</v>
+      </c>
+      <c r="I13">
+        <v>0.4836052270456916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2535700434099961</v>
+        <v>0.2248107844117035</v>
       </c>
       <c r="C14">
-        <v>0.006594452710727652</v>
+        <v>0.1168412559458057</v>
       </c>
       <c r="D14">
-        <v>0.2333235052475255</v>
+        <v>0.2352836737397292</v>
       </c>
       <c r="E14">
-        <v>0.2779484200208602</v>
+        <v>0.1102138727069684</v>
       </c>
       <c r="F14">
-        <v>0.5575544692543886</v>
+        <v>0.1966489293779298</v>
       </c>
       <c r="G14">
-        <v>0.8224103758671465</v>
+        <v>0.5611166210636733</v>
       </c>
       <c r="H14">
-        <v>0.4962008259560947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.8121430377581658</v>
+      </c>
+      <c r="I14">
+        <v>0.4885049626139258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2819784343908623</v>
+        <v>0.2318029379866801</v>
       </c>
       <c r="C15">
-        <v>0.006612874781318086</v>
+        <v>0.1177457024311259</v>
       </c>
       <c r="D15">
-        <v>0.2547970687806039</v>
+        <v>0.2361099208512716</v>
       </c>
       <c r="E15">
-        <v>0.4052558418181689</v>
+        <v>0.1112143975928181</v>
       </c>
       <c r="F15">
-        <v>0.5892965134018937</v>
+        <v>0.2152237809670639</v>
       </c>
       <c r="G15">
-        <v>0.8276277203950514</v>
+        <v>0.5461022238881501</v>
       </c>
       <c r="H15">
-        <v>0.4860775129964612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.8163896094731372</v>
+      </c>
+      <c r="I15">
+        <v>0.4844894101502938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2577014802869759</v>
+        <v>0.2187153081998197</v>
       </c>
       <c r="C16">
-        <v>0.006591419413462512</v>
+        <v>0.1272228419765469</v>
       </c>
       <c r="D16">
-        <v>0.2315578751127622</v>
+        <v>0.2368857059453979</v>
       </c>
       <c r="E16">
-        <v>0.2514909699682651</v>
+        <v>0.1211636296786931</v>
       </c>
       <c r="F16">
-        <v>0.5348801988692348</v>
+        <v>0.2466904250602642</v>
       </c>
       <c r="G16">
-        <v>0.8284883212859346</v>
+        <v>0.5611930742399481</v>
       </c>
       <c r="H16">
-        <v>0.4935988100529437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.8124267521937066</v>
+      </c>
+      <c r="I16">
+        <v>0.4869272212716966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2891663312986678</v>
+        <v>0.204068022385361</v>
       </c>
       <c r="C17">
-        <v>0.006604867021731332</v>
+        <v>0.1414124070750617</v>
       </c>
       <c r="D17">
-        <v>0.2713095286681778</v>
+        <v>0.245711904157292</v>
       </c>
       <c r="E17">
-        <v>0.4125107776542483</v>
+        <v>0.1359665222015307</v>
       </c>
       <c r="F17">
-        <v>0.6110340223333679</v>
+        <v>0.2681882986998504</v>
       </c>
       <c r="G17">
-        <v>0.83569494572299</v>
+        <v>0.5537158173978814</v>
       </c>
       <c r="H17">
-        <v>0.4800024741360786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.8193201962587908</v>
+      </c>
+      <c r="I17">
+        <v>0.4778762868373994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.297828279048466</v>
+        <v>0.2236565842269772</v>
       </c>
       <c r="C18">
-        <v>0.006615050582823197</v>
+        <v>0.1192087963627669</v>
       </c>
       <c r="D18">
-        <v>0.2604005243711247</v>
+        <v>0.2307991176942847</v>
       </c>
       <c r="E18">
-        <v>0.4371356745248333</v>
+        <v>0.1128067649405668</v>
       </c>
       <c r="F18">
-        <v>0.5940551566656596</v>
+        <v>0.2216228511998579</v>
       </c>
       <c r="G18">
-        <v>0.8306126484633296</v>
+        <v>0.5372139140580292</v>
       </c>
       <c r="H18">
-        <v>0.4831579409980593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.8145049055640904</v>
+      </c>
+      <c r="I18">
+        <v>0.486282120792317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2931988076000998</v>
+        <v>0.2343317906140713</v>
       </c>
       <c r="C19">
-        <v>0.006568845802154382</v>
+        <v>0.1183513823730932</v>
       </c>
       <c r="D19">
-        <v>0.2250829223923556</v>
+        <v>0.2371714502939308</v>
       </c>
       <c r="E19">
-        <v>0.197729835481177</v>
+        <v>0.1118493767923366</v>
       </c>
       <c r="F19">
-        <v>0.5462273841862804</v>
+        <v>0.2208767890196819</v>
       </c>
       <c r="G19">
-        <v>0.8259580489814873</v>
+        <v>0.5434810680233915</v>
       </c>
       <c r="H19">
-        <v>0.5041877992981236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.8194262453410499</v>
+      </c>
+      <c r="I19">
+        <v>0.4842202057946164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2546142703888469</v>
+        <v>0.2156546421276909</v>
       </c>
       <c r="C20">
-        <v>0.006599560198708349</v>
+        <v>0.1337910146478452</v>
       </c>
       <c r="D20">
-        <v>0.2484670914605697</v>
+        <v>0.2539698723824593</v>
       </c>
       <c r="E20">
-        <v>0.3312394221353531</v>
+        <v>0.1279218425958208</v>
       </c>
       <c r="F20">
-        <v>0.5675182424562117</v>
+        <v>0.2572089237346126</v>
       </c>
       <c r="G20">
-        <v>0.8341091591046081</v>
+        <v>0.5810054084780503</v>
       </c>
       <c r="H20">
-        <v>0.4896411332759799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.8232835979545752</v>
+      </c>
+      <c r="I20">
+        <v>0.481124634068441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2672105348000172</v>
+        <v>0.319860835015412</v>
       </c>
       <c r="C21">
-        <v>0.006591844133328292</v>
+        <v>0.1206754518442558</v>
       </c>
       <c r="D21">
-        <v>0.2251357167716184</v>
+        <v>0.1949120107518967</v>
       </c>
       <c r="E21">
-        <v>0.2526473221744298</v>
+        <v>0.114574287437383</v>
       </c>
       <c r="F21">
-        <v>0.5239041305942317</v>
+        <v>0.1418311400838548</v>
       </c>
       <c r="G21">
-        <v>0.831013634300919</v>
+        <v>0.4828345289125805</v>
       </c>
       <c r="H21">
-        <v>0.4988222555566377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.8115204993968046</v>
+      </c>
+      <c r="I21">
+        <v>0.5064810387806151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3284071226617949</v>
+        <v>0.2397010545625629</v>
       </c>
       <c r="C22">
-        <v>0.006566563150990117</v>
+        <v>0.1164674633925862</v>
       </c>
       <c r="D22">
-        <v>0.2117380349253311</v>
+        <v>0.228336836391139</v>
       </c>
       <c r="E22">
-        <v>0.175759870221423</v>
+        <v>0.1099215454472061</v>
       </c>
       <c r="F22">
-        <v>0.5090205610833073</v>
+        <v>0.2203313066267725</v>
       </c>
       <c r="G22">
-        <v>0.8300075939235541</v>
+        <v>0.52399484181685</v>
       </c>
       <c r="H22">
-        <v>0.5086044477511775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.8213744553333985</v>
+      </c>
+      <c r="I22">
+        <v>0.4887161710287812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2557005842628312</v>
+        <v>0.2298960768765853</v>
       </c>
       <c r="C23">
-        <v>0.00658681042425205</v>
+        <v>0.1202344293286989</v>
       </c>
       <c r="D23">
-        <v>0.2475667968544696</v>
+        <v>0.2443653577318471</v>
       </c>
       <c r="E23">
-        <v>0.2923274512006285</v>
+        <v>0.1137759663609031</v>
       </c>
       <c r="F23">
-        <v>0.5834072213353904</v>
+        <v>0.2216084845284265</v>
       </c>
       <c r="G23">
-        <v>0.8321448130901078</v>
+        <v>0.5522895834979524</v>
       </c>
       <c r="H23">
-        <v>0.4956132482671982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.8252223083270787</v>
+      </c>
+      <c r="I23">
+        <v>0.4827992822690783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2595526166428992</v>
+        <v>0.226633419235965</v>
       </c>
       <c r="C24">
-        <v>0.006604742925212384</v>
+        <v>0.1246429831085999</v>
       </c>
       <c r="D24">
-        <v>0.2493454873504921</v>
+        <v>0.2458528142829898</v>
       </c>
       <c r="E24">
-        <v>0.3585710992788224</v>
+        <v>0.1183863952460051</v>
       </c>
       <c r="F24">
-        <v>0.5655539310833229</v>
+        <v>0.2382364318347164</v>
       </c>
       <c r="G24">
-        <v>0.8393404773816967</v>
+        <v>0.5587153108970518</v>
       </c>
       <c r="H24">
-        <v>0.4913549555008865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.8285479668718756</v>
+      </c>
+      <c r="I24">
+        <v>0.4858186208051707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3881130386060545</v>
+        <v>0.2152539091262713</v>
       </c>
       <c r="C25">
-        <v>0.006606776186214159</v>
+        <v>0.1260775680589492</v>
       </c>
       <c r="D25">
-        <v>0.294638236543619</v>
+        <v>0.2450137330755172</v>
       </c>
       <c r="E25">
-        <v>0.5335036287983721</v>
+        <v>0.1198305886889569</v>
       </c>
       <c r="F25">
-        <v>0.6485924729092576</v>
+        <v>0.2259412743452609</v>
       </c>
       <c r="G25">
-        <v>0.8564588145715426</v>
+        <v>0.5765197515203646</v>
       </c>
       <c r="H25">
-        <v>0.4804527337940344</v>
+        <v>0.8299429589223445</v>
+      </c>
+      <c r="I25">
+        <v>0.4948492591951668</v>
       </c>
     </row>
   </sheetData>
